--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766338</v>
+        <v>766339</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429245421</v>
+        <v>1429246921</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345542</v>
+        <v>345543</v>
       </c>
       <c r="D10" t="n">
         <v>64165</v>
       </c>
       <c r="E10" t="n">
-        <v>1817724469</v>
+        <v>1817726652</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178447</v>
+        <v>178449</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892648000</v>
+        <v>892714177</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306384</v>
+        <v>1306389</v>
       </c>
       <c r="D121" t="n">
         <v>220387</v>
       </c>
       <c r="E121" t="n">
-        <v>2275442227</v>
+        <v>2275451672</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9158</v>
+        <v>9162</v>
       </c>
       <c r="D127" t="n">
         <v>1297</v>
       </c>
       <c r="E127" t="n">
-        <v>110605769</v>
+        <v>110643825</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633754</v>
+        <v>633765</v>
       </c>
       <c r="D129" t="n">
         <v>104970</v>
       </c>
       <c r="E129" t="n">
-        <v>3434802953</v>
+        <v>3434962442</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586013</v>
+        <v>586019</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3472655962</v>
+        <v>3472757246</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25085</v>
+        <v>25086</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92550331</v>
+        <v>92584820</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283325</v>
+        <v>283326</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438440325</v>
+        <v>1438447265</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205929</v>
+        <v>205931</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069838321</v>
+        <v>1069842460</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766339</v>
+        <v>766341</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429246921</v>
+        <v>1429248811</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187860</v>
+        <v>187861</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168230859</v>
+        <v>1168232002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27512</v>
+        <v>27514</v>
       </c>
       <c r="D19" t="n">
         <v>4210</v>
       </c>
       <c r="E19" t="n">
-        <v>132237220</v>
+        <v>132331474</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>175241</v>
+        <v>175242</v>
       </c>
       <c r="D21" t="n">
         <v>38057</v>
       </c>
       <c r="E21" t="n">
-        <v>316814898</v>
+        <v>316822468</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>126945</v>
+        <v>126946</v>
       </c>
       <c r="D41" t="n">
         <v>24257</v>
       </c>
       <c r="E41" t="n">
-        <v>662707757</v>
+        <v>662711335</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31596</v>
+        <v>31597</v>
       </c>
       <c r="D57" t="n">
-        <v>6017</v>
+        <v>6018</v>
       </c>
       <c r="E57" t="n">
-        <v>162615330</v>
+        <v>162625330</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88356</v>
+        <v>88357</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499673318</v>
+        <v>499681283</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71277</v>
+        <v>71278</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110315180</v>
+        <v>110315721</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306389</v>
+        <v>1306396</v>
       </c>
       <c r="D121" t="n">
-        <v>220387</v>
+        <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275451672</v>
+        <v>2275480279</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633765</v>
+        <v>633775</v>
       </c>
       <c r="D129" t="n">
         <v>104970</v>
       </c>
       <c r="E129" t="n">
-        <v>3434962442</v>
+        <v>3435036140</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586019</v>
+        <v>586022</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3472757246</v>
+        <v>3472775626</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39933</v>
+        <v>39935</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60385247</v>
+        <v>60390275</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12411</v>
+        <v>12412</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40580089</v>
+        <v>40642757</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95824</v>
+        <v>95828</v>
       </c>
       <c r="D171" t="n">
-        <v>18308</v>
+        <v>18309</v>
       </c>
       <c r="E171" t="n">
-        <v>490685924</v>
+        <v>490704985</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515887</v>
+        <v>515888</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891202353</v>
+        <v>891213559</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236837</v>
+        <v>236840</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1190008752</v>
+        <v>1190035149</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283326</v>
+        <v>283328</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438447265</v>
+        <v>1438555325</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205931</v>
+        <v>205932</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069842460</v>
+        <v>1069916235</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
